--- a/output/proc_1_CHARLS/VIF_CHARLS.xlsx
+++ b/output/proc_1_CHARLS/VIF_CHARLS.xlsx
@@ -341,57 +341,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.46327720617195</v>
+        <v>1.64421509713392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.96930039249344</v>
+        <v>2.14093830608151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.77523799368756</v>
+        <v>2.16614559930839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.12052743095114</v>
+        <v>1.14753782178941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.00535684018706</v>
+        <v>1.01943485680012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.02704194249584</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2.11775969123756</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.05853594798571</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.04588677779009</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.03572105455187</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1.24650991977857</v>
+        <v>1.01211875569361</v>
       </c>
     </row>
   </sheetData>
@@ -410,67 +385,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.73251479074118</v>
+        <v>1.90827610962864</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.23330837566056</v>
+        <v>1.44951687351816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.05525373347488</v>
+        <v>1.01697704045347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.64781562095078</v>
+        <v>1.16185795737729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.08820790904117</v>
+        <v>1.41116736911648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.0890858708867</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.19302430349778</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.51725307315428</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.0088502952991</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.08794058785678</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1.0370966863425</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1.22786868426493</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1.01342640163285</v>
+        <v>1.03037752775331</v>
       </c>
     </row>
   </sheetData>

--- a/output/proc_1_CHARLS/VIF_CHARLS.xlsx
+++ b/output/proc_1_CHARLS/VIF_CHARLS.xlsx
@@ -341,32 +341,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.64421509713392</v>
+        <v>15.3968702654885</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.14093830608151</v>
+        <v>10.7628517865512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.16614559930839</v>
+        <v>1.95950731912582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.14753782178941</v>
+        <v>3.26581135713968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.01943485680012</v>
+        <v>1.18779324855919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.01211875569361</v>
+        <v>1.02538651360578</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.11386708592817</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.12750234811552</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.05605728207215</v>
       </c>
     </row>
   </sheetData>
@@ -385,32 +400,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.90827610962864</v>
+        <v>15.5966125456518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.44951687351816</v>
+        <v>11.1898032521172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.01697704045347</v>
+        <v>2.20991141563996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.16185795737729</v>
+        <v>1.10663384212581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.41116736911648</v>
+        <v>1.05294349186372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.03037752775331</v>
+        <v>2.81454112385297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.04882038640453</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.02175818921065</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.35385937387962</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.2807555387255</v>
       </c>
     </row>
   </sheetData>

--- a/output/proc_1_CHARLS/VIF_CHARLS.xlsx
+++ b/output/proc_1_CHARLS/VIF_CHARLS.xlsx
@@ -10,6 +10,47 @@
     <sheet name="CHRONIC_RATIO" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">car..vif.lm.li_EqRan_CHARLS..tmpYname....tmp..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGINDIINCOME_EARN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGINDIINCOME_EARN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGEDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC7</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,47 +381,82 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>15.3968702654885</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
         <v>10.7628517865512</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>1.95950731912582</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>3.26581135713968</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
         <v>1.18779324855919</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
         <v>1.02538651360578</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
         <v>1.11386708592817</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>1.12750234811552</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
         <v>1.05605728207215</v>
       </c>
     </row>
@@ -399,52 +475,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>15.5966125456518</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
         <v>11.1898032521172</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>2.20991141563996</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>1.10663384212581</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
         <v>1.05294349186372</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
         <v>2.81454112385297</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
         <v>1.04882038640453</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>1.02175818921065</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
         <v>1.35385937387962</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
         <v>1.2807555387255</v>
       </c>
     </row>
